--- a/templates/community/RPTU/RPTU_FS_StandardPreparation.xlsx
+++ b/templates/community/RPTU/RPTU_FS_StandardPreparation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\RPTU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\RPTU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15CF3FB-3F64-4ED9-85C5-EE062CC1FDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F50986-38F2-4599-9DBD-C10C246AD07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{160956DD-63D3-44CC-80F0-A1D991AB050A}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{160956DD-63D3-44CC-80F0-A1D991AB050A}"/>
   </bookViews>
   <sheets>
     <sheet name="ProteinStandardMixing" sheetId="1" r:id="rId1"/>
@@ -51,75 +51,75 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{54C09A58-8625-4FDF-87A2-58E107444F75}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The unique identifier of this template. It will be auto generated.
-Reply:
+Antwort:
     id=98cff6e0-e943-4da7-89a2-6bf103de4bab</t>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{A1A19CDD-51F8-4407-A363-8AC0CEE5FCD3}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate template.</t>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{F03B4BB7-0FD4-43CA-B17E-47BD1E18CEF0}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The current version of this template in SemVer notation.</t>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{CB907680-DB25-4747-8940-98C4B72471B4}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The description of this template. Use few sentences for succinctness.</t>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{593213DE-F603-4544-9C37-BAB88CF3BE71}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{143085ED-111F-4D21-BA22-A3F5348035D7}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{64450A44-E7CB-4770-9D52-05D9AAF0B696}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms.</t>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{099E4910-6A47-444E-BD58-B15D7879C136}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all tags associated with this template. Tags are realized as Terms.</t>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{C12058F9-E56E-40F3-81AC-DE835D1748E0}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The author(s) of this template.</t>
       </text>
     </comment>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>Source Name</t>
   </si>
@@ -359,15 +359,6 @@
   </si>
   <si>
     <t>Template for mixing the internal protein standard of the mass spectrometry facility at the department of Molecular Biotechnology &amp; Systems Biology at RPTU Kaiserslautern</t>
-  </si>
-  <si>
-    <t>PRIDE</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_1000098</t>
-  </si>
-  <si>
-    <t>DPBO</t>
   </si>
   <si>
     <t>Algae</t>
@@ -423,7 +414,7 @@
     <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram per liter&quot;"/>
     <numFmt numFmtId="165" formatCode="0.00\ &quot;milligram per milliliter&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,12 +445,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -664,8 +649,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
     <dxf>
@@ -752,9 +737,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -792,7 +777,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -898,7 +883,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1040,7 +1025,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1116,45 +1101,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641C292A-DED0-44DE-AB38-02A704F84B44}">
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.85546875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="39.5703125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="21.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="35.140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="37.88671875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.88671875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="39.5546875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="21.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="35.109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="19" max="20" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="28.5703125" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="19" max="20" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="37.88671875" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="28.5546875" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="0" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +1189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1254,7 +1239,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1304,7 +1289,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1354,7 +1339,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
@@ -1374,7 +1359,7 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
@@ -1427,7 +1412,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>31</v>
       </c>
@@ -1465,17 +1450,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81C42FB-6659-43AF-87DD-A8DAA99E1099}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>44</v>
       </c>
@@ -1483,7 +1468,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>45</v>
       </c>
@@ -1491,7 +1476,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>46</v>
       </c>
@@ -1499,7 +1484,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>47</v>
       </c>
@@ -1507,7 +1492,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>48</v>
       </c>
@@ -1515,7 +1500,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>49</v>
       </c>
@@ -1523,71 +1508,65 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="20"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="21"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="19"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="19"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B11" s="20"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>57</v>
       </c>
@@ -1601,103 +1580,103 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="20"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B18" s="19"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>63</v>
       </c>
       <c r="B20" s="19"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B21" s="19"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B22" s="19"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B23" s="19"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B24" s="19"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B25" s="19"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>69</v>
       </c>
       <c r="B26" s="19"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>70</v>
       </c>

--- a/templates/community/RPTU/RPTU_FS_StandardPreparation.xlsx
+++ b/templates/community/RPTU/RPTU_FS_StandardPreparation.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\RPTU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F50986-38F2-4599-9DBD-C10C246AD07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABD4C93-11FB-481D-BC71-DB891EA1B888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{160956DD-63D3-44CC-80F0-A1D991AB050A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{160956DD-63D3-44CC-80F0-A1D991AB050A}"/>
   </bookViews>
   <sheets>
     <sheet name="ProteinStandardMixing" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="3" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
